--- a/inputs/data_raw/Data_SJPF_Demographics_20190630.xlsx
+++ b/inputs/data_raw/Data_SJPF_Demographics_20190630.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Proj_CAPlans\model_SJ\inputs\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D445C1-0E57-4B02-BF0B-B1047C6E3459}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCFCF32-C0BC-439C-9022-7656A0EEE0FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="other" sheetId="37" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="116">
   <si>
     <t>TOC</t>
   </si>
@@ -267,255 +267,7 @@
     <t>65-69</t>
   </si>
   <si>
-    <t>Source: AV2020 np43, extracted using GetData</t>
-  </si>
-  <si>
-    <t>100 and older</t>
-  </si>
-  <si>
     <t>Ratios (gender, occupation)</t>
-  </si>
-  <si>
-    <t>source: AV2020 np75</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Distribution of Retirees, Disabled</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Members, Beneficiaries, and Survivors</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>As of June 30, 2020</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Regular Plan Participants</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Age</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Count</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Annual Benefit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Under 45</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>$  299,282</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>45 to 49</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>50 to 54</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>55 to 59</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>60 to 64</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>65 to 69</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>70 to 74</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>75 to 79</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>80 to 84</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>85 to 89</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>90 &amp; up</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Total</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Special Plan Participants  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Annual Benefit Distribution</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>$  270,259</t>
-    </r>
   </si>
   <si>
     <t>70 and up</t>
@@ -541,18 +293,12 @@
     <t>1-4</t>
   </si>
   <si>
-    <t>40 and up'</t>
-  </si>
-  <si>
     <t>regular</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>D7:P30</t>
-  </si>
-  <si>
     <t>benefit_tot</t>
   </si>
   <si>
@@ -568,18 +314,6 @@
     <t>90-94</t>
   </si>
   <si>
-    <t>retirees_all</t>
-  </si>
-  <si>
-    <t>D6:G17</t>
-  </si>
-  <si>
-    <t>Under 45</t>
-  </si>
-  <si>
-    <t>45 to 49</t>
-  </si>
-  <si>
     <t>50 to 54</t>
   </si>
   <si>
@@ -610,44 +344,342 @@
     <t>0-0</t>
   </si>
   <si>
-    <t>n_retirees_all</t>
+    <t>total</t>
+  </si>
+  <si>
+    <t>active members, as of June30, 2020</t>
+  </si>
+  <si>
+    <t>servRets, as of June30, 2020</t>
+  </si>
+  <si>
+    <t>disbRet (all), as of June 30, 2020</t>
+  </si>
+  <si>
+    <t>AV2019 ep47</t>
+  </si>
+  <si>
+    <t>AV2019 ep50</t>
   </si>
   <si>
     <r>
-      <t>40-</t>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Distribution of Retirees, Disabled Members,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>and Beneficiaries as of June 30, 2019</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Age</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Count</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Annual Benefit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Under 50</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>50 to 54</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>55 to 59</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>60 to 64</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>65 to 69</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>70 to 74</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>75 to 79</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>80 to 84</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>85 to 89</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>90 and up</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Total</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>$  224,303,022</t>
+    </r>
+  </si>
+  <si>
+    <t>Under I</t>
+  </si>
+  <si>
+    <t>to 4</t>
+  </si>
+  <si>
+    <t>Distribution of
+5 to 9</t>
+  </si>
+  <si>
+    <t>Active Members as of.June
+Years of Benefit Service
+10 to 14  15 to 19</t>
+  </si>
+  <si>
+    <t>30, 2019
+20 to 24</t>
+  </si>
+  <si>
+    <t>25 to 29</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>Under 1</t>
+  </si>
+  <si>
+    <t>I to 4</t>
+  </si>
+  <si>
+    <t>5 to 9</t>
+  </si>
+  <si>
+    <t>Years of Benefit Service
+10 to 14  15 to 19</t>
+  </si>
+  <si>
+    <t>20 to 24</t>
+  </si>
+  <si>
+    <t>30 and Up</t>
+  </si>
+  <si>
+    <t>8105,612</t>
+  </si>
+  <si>
+    <t>$  115,634</t>
+  </si>
+  <si>
+    <t>$  137,009</t>
+  </si>
+  <si>
+    <t>$  142,694</t>
+  </si>
+  <si>
+    <t>$  148,751</t>
+  </si>
+  <si>
+    <t>$  156,980</t>
+  </si>
+  <si>
+    <t>S  167,965</t>
+  </si>
+  <si>
+    <t>$  166,194</t>
+  </si>
+  <si>
+    <t>$  138,635</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">30 and </t>
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>44</t>
+      <t>Up</t>
     </r>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>active members, as of June30, 2020</t>
-  </si>
-  <si>
-    <t>servRets, as of June30, 2020</t>
-  </si>
-  <si>
-    <t>disbRet (all), as of June 30, 2020</t>
+    <r>
+      <t xml:space="preserve">Distribution of Average Expected Salary </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">of June 30, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2019</t>
+    </r>
+  </si>
+  <si>
+    <t>30 and up</t>
+  </si>
+  <si>
+    <t>under 50</t>
+  </si>
+  <si>
+    <t>n_retirees</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>D6:G16</t>
+  </si>
+  <si>
+    <t>D7:N30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -706,23 +738,6 @@
     </font>
     <font>
       <b/>
-      <sz val="7"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8.5"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -734,6 +749,42 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -772,7 +823,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -829,12 +880,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -891,68 +963,165 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="6" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1162,15 +1331,113 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>353886</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>10986</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{273F910B-3265-4B8C-89C9-24AD39CD58B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10182225" y="419100"/>
+          <a:ext cx="7440486" cy="6343649"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>524727</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>182106</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06566830-BD5A-4EB3-8341-6FFC0D47AE07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8077200" y="342900"/>
+          <a:ext cx="6106377" cy="7459206"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>582486</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1193,7 +1460,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8763000" y="361950"/>
+          <a:off x="8982075" y="390525"/>
           <a:ext cx="7440486" cy="6343649"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1206,27 +1473,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>195431</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>181827</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>48756</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B9A7589-265D-40E0-94F2-42C16056D511}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B45C2B02-AE20-4110-9FDD-D72943383DEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1242,8 +1509,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8039100" y="2857501"/>
-          <a:ext cx="8729831" cy="6610350"/>
+          <a:off x="8705850" y="590550"/>
+          <a:ext cx="6106377" cy="8106906"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1531,41 +1798,41 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="39" t="s">
-        <v>97</v>
+      <c r="A4" s="29" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="B5">
         <v>8600</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="28">
         <f>B5/$B$7</f>
         <v>0.72647406656529823</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B6">
         <v>3238</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="28">
         <f>B6/$B$7</f>
         <v>0.27352593343470183</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="B7">
         <f>SUM(B5:B6)</f>
@@ -1573,37 +1840,37 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="39" t="s">
-        <v>98</v>
+      <c r="A9" s="29" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>5648</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="28">
         <f>B10/$B$12</f>
         <v>0.7820548324563833</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>1574</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="28">
         <f>B11/$B$12</f>
         <v>0.21794516754361673</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="B12">
         <f>SUM(B10:B11)</f>
@@ -1612,38 +1879,38 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="B15">
         <f>25+266</f>
         <v>291</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="28">
         <f>B15/$B$17</f>
         <v>0.74615384615384617</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B16">
         <f>18+81</f>
         <v>99</v>
       </c>
-      <c r="C16" s="38">
+      <c r="C16" s="28">
         <f>B16/$B$17</f>
         <v>0.25384615384615383</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="B17">
         <f>SUM(B15:B16)</f>
@@ -1659,10 +1926,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF5E2A8-8066-4C09-9596-AB1EEC0396D2}">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1672,39 +1939,39 @@
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" customWidth="1"/>
     <col min="9" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>35</v>
       </c>
       <c r="B4">
-        <v>20200630</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>20190630</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
@@ -1712,10 +1979,10 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>1</v>
@@ -1733,16 +2000,10 @@
         <v>22</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="C7" s="5"/>
       <c r="D7" s="6" t="s">
         <v>15</v>
@@ -1777,25 +2038,19 @@
       <c r="N7" s="7">
         <v>32</v>
       </c>
-      <c r="O7" s="7">
-        <v>37</v>
-      </c>
-      <c r="P7" s="7">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+    </row>
+    <row r="8" spans="1:14">
       <c r="C8" s="5"/>
       <c r="D8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="37" t="s">
-        <v>93</v>
+      <c r="G8" s="27" t="s">
+        <v>61</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>14</v>
@@ -1815,14 +2070,8 @@
       <c r="N8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+    </row>
+    <row r="9" spans="1:14">
       <c r="C9" s="11" t="s">
         <v>36</v>
       </c>
@@ -1836,13 +2085,13 @@
         <v>20</v>
       </c>
       <c r="G9" s="14">
-        <v>283</v>
+        <v>24</v>
       </c>
       <c r="H9" s="14">
-        <v>208</v>
+        <v>9</v>
       </c>
       <c r="I9" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" s="14">
         <v>0</v>
@@ -1859,14 +2108,8 @@
       <c r="N9" s="15">
         <v>0</v>
       </c>
-      <c r="O9" s="15">
-        <v>0</v>
-      </c>
-      <c r="P9" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+    </row>
+    <row r="10" spans="1:14">
       <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1880,16 +2123,16 @@
         <v>22</v>
       </c>
       <c r="G10" s="14">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="H10" s="14">
-        <v>331</v>
+        <v>108</v>
       </c>
       <c r="I10" s="14">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="J10" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K10" s="14">
         <v>0</v>
@@ -1903,14 +2146,8 @@
       <c r="N10" s="15">
         <v>0</v>
       </c>
-      <c r="O10" s="15">
-        <v>0</v>
-      </c>
-      <c r="P10" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+    </row>
+    <row r="11" spans="1:14">
       <c r="C11" s="3" t="s">
         <v>6</v>
       </c>
@@ -1924,16 +2161,16 @@
         <v>23</v>
       </c>
       <c r="G11" s="14">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="H11" s="14">
-        <v>325</v>
+        <v>125</v>
       </c>
       <c r="I11" s="14">
-        <v>149</v>
+        <v>56</v>
       </c>
       <c r="J11" s="14">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="K11" s="14">
         <v>0</v>
@@ -1947,14 +2184,8 @@
       <c r="N11" s="15">
         <v>0</v>
       </c>
-      <c r="O11" s="15">
-        <v>0</v>
-      </c>
-      <c r="P11" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+    </row>
+    <row r="12" spans="1:14">
       <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
@@ -1968,22 +2199,22 @@
         <v>24</v>
       </c>
       <c r="G12" s="14">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="H12" s="14">
-        <v>367</v>
+        <v>52</v>
       </c>
       <c r="I12" s="14">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="J12" s="14">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="K12" s="14">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="L12" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M12" s="14">
         <v>0</v>
@@ -1991,14 +2222,8 @@
       <c r="N12" s="15">
         <v>0</v>
       </c>
-      <c r="O12" s="15">
-        <v>0</v>
-      </c>
-      <c r="P12" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+    </row>
+    <row r="13" spans="1:14">
       <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
@@ -2012,37 +2237,31 @@
         <v>25</v>
       </c>
       <c r="G13" s="14">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="H13" s="14">
-        <v>325</v>
+        <v>21</v>
       </c>
       <c r="I13" s="14">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="J13" s="14">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="K13" s="14">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="L13" s="14">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M13" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N13" s="15">
         <v>0</v>
       </c>
-      <c r="O13" s="15">
-        <v>0</v>
-      </c>
-      <c r="P13" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+    </row>
+    <row r="14" spans="1:14">
       <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
@@ -2056,37 +2275,31 @@
         <v>26</v>
       </c>
       <c r="G14" s="14">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="H14" s="14">
-        <v>362</v>
+        <v>4</v>
       </c>
       <c r="I14" s="14">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="J14" s="14">
-        <v>159</v>
+        <v>56</v>
       </c>
       <c r="K14" s="14">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L14" s="14">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="M14" s="14">
         <v>11</v>
       </c>
       <c r="N14" s="15">
-        <v>2</v>
-      </c>
-      <c r="O14" s="15">
-        <v>0</v>
-      </c>
-      <c r="P14" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="C15" s="3" t="s">
         <v>10</v>
       </c>
@@ -2100,37 +2313,31 @@
         <v>27</v>
       </c>
       <c r="G15" s="14">
-        <v>107</v>
+        <v>1</v>
       </c>
       <c r="H15" s="14">
-        <v>334</v>
+        <v>1</v>
       </c>
       <c r="I15" s="14">
-        <v>249</v>
+        <v>2</v>
       </c>
       <c r="J15" s="14">
-        <v>233</v>
+        <v>24</v>
       </c>
       <c r="K15" s="14">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="L15" s="14">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="M15" s="14">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N15" s="15">
-        <v>21</v>
-      </c>
-      <c r="O15" s="15">
-        <v>2</v>
-      </c>
-      <c r="P15" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
@@ -2144,37 +2351,31 @@
         <v>28</v>
       </c>
       <c r="G16" s="14">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="H16" s="14">
-        <v>326</v>
+        <v>2</v>
       </c>
       <c r="I16" s="14">
-        <v>273</v>
+        <v>1</v>
       </c>
       <c r="J16" s="14">
-        <v>268</v>
+        <v>2</v>
       </c>
       <c r="K16" s="14">
-        <v>164</v>
+        <v>15</v>
       </c>
       <c r="L16" s="14">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="M16" s="14">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="N16" s="15">
-        <v>60</v>
-      </c>
-      <c r="O16" s="15">
-        <v>22</v>
-      </c>
-      <c r="P16" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14">
       <c r="C17" s="3" t="s">
         <v>12</v>
       </c>
@@ -2188,37 +2389,31 @@
         <v>29</v>
       </c>
       <c r="G17" s="14">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="H17" s="14">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="I17" s="14">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="J17" s="14">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="K17" s="14">
-        <v>161</v>
+        <v>3</v>
       </c>
       <c r="L17" s="14">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="M17" s="14">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="N17" s="15">
-        <v>67</v>
-      </c>
-      <c r="O17" s="15">
-        <v>32</v>
-      </c>
-      <c r="P17" s="15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14">
       <c r="C18" s="4" t="s">
         <v>37</v>
       </c>
@@ -2232,39 +2427,33 @@
         <v>39</v>
       </c>
       <c r="G18" s="14">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H18" s="14">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="I18" s="14">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="J18" s="14">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="K18" s="14">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="L18" s="14">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="M18" s="14">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="N18" s="15">
-        <v>13</v>
-      </c>
-      <c r="O18" s="15">
-        <v>10</v>
-      </c>
-      <c r="P18" s="15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14">
       <c r="C19" s="3" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>19</v>
@@ -2273,40 +2462,34 @@
         <v>72</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G19" s="14">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H19" s="14">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I19" s="14">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="J19" s="14">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K19" s="14">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="L19" s="14">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M19" s="14">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N19" s="15">
-        <v>2</v>
-      </c>
-      <c r="O19" s="15">
-        <v>2</v>
-      </c>
-      <c r="P19" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="3:16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14">
       <c r="C20" s="11" t="s">
         <v>36</v>
       </c>
@@ -2320,13 +2503,13 @@
         <v>20</v>
       </c>
       <c r="G20" s="16">
-        <v>20724</v>
+        <v>103799</v>
       </c>
       <c r="H20" s="16">
-        <v>35453</v>
+        <v>110446</v>
       </c>
       <c r="I20" s="16">
-        <v>53607</v>
+        <v>0</v>
       </c>
       <c r="J20" s="16">
         <v>0</v>
@@ -2343,14 +2526,8 @@
       <c r="N20" s="17">
         <v>0</v>
       </c>
-      <c r="O20" s="17">
-        <v>0</v>
-      </c>
-      <c r="P20" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16">
+    </row>
+    <row r="21" spans="3:14">
       <c r="C21" s="3" t="s">
         <v>5</v>
       </c>
@@ -2364,16 +2541,16 @@
         <v>22</v>
       </c>
       <c r="G21" s="16">
-        <v>32234</v>
+        <v>102715</v>
       </c>
       <c r="H21" s="16">
-        <v>40632</v>
+        <v>113854</v>
       </c>
       <c r="I21" s="16">
-        <v>51039</v>
+        <v>137451</v>
       </c>
       <c r="J21" s="16">
-        <v>54253</v>
+        <v>0</v>
       </c>
       <c r="K21" s="16">
         <v>0</v>
@@ -2387,14 +2564,8 @@
       <c r="N21" s="17">
         <v>0</v>
       </c>
-      <c r="O21" s="17">
-        <v>0</v>
-      </c>
-      <c r="P21" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16">
+    </row>
+    <row r="22" spans="3:14">
       <c r="C22" s="3" t="s">
         <v>6</v>
       </c>
@@ -2408,16 +2579,16 @@
         <v>23</v>
       </c>
       <c r="G22" s="16">
-        <v>35886</v>
+        <v>104131</v>
       </c>
       <c r="H22" s="16">
-        <v>43315</v>
+        <v>115691</v>
       </c>
       <c r="I22" s="16">
-        <v>51333</v>
+        <v>138932</v>
       </c>
       <c r="J22" s="16">
-        <v>57805</v>
+        <v>140531</v>
       </c>
       <c r="K22" s="16">
         <v>0</v>
@@ -2431,14 +2602,8 @@
       <c r="N22" s="17">
         <v>0</v>
       </c>
-      <c r="O22" s="17">
-        <v>0</v>
-      </c>
-      <c r="P22" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16">
+    </row>
+    <row r="23" spans="3:14">
       <c r="C23" s="3" t="s">
         <v>7</v>
       </c>
@@ -2452,22 +2617,22 @@
         <v>24</v>
       </c>
       <c r="G23" s="16">
-        <v>35012</v>
+        <v>101048</v>
       </c>
       <c r="H23" s="16">
-        <v>43932</v>
+        <v>118417</v>
       </c>
       <c r="I23" s="16">
-        <v>52923</v>
+        <v>136831</v>
       </c>
       <c r="J23" s="16">
-        <v>56056</v>
+        <v>145149</v>
       </c>
       <c r="K23" s="16">
-        <v>54924</v>
+        <v>160194</v>
       </c>
       <c r="L23" s="16">
-        <v>58870</v>
+        <v>0</v>
       </c>
       <c r="M23" s="16">
         <v>0</v>
@@ -2475,14 +2640,8 @@
       <c r="N23" s="17">
         <v>0</v>
       </c>
-      <c r="O23" s="17">
-        <v>0</v>
-      </c>
-      <c r="P23" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16">
+    </row>
+    <row r="24" spans="3:14">
       <c r="C24" s="3" t="s">
         <v>8</v>
       </c>
@@ -2496,37 +2655,31 @@
         <v>25</v>
       </c>
       <c r="G24" s="16">
-        <v>34567</v>
+        <v>92443</v>
       </c>
       <c r="H24" s="16">
-        <v>45085</v>
+        <v>116496</v>
       </c>
       <c r="I24" s="16">
-        <v>53675</v>
+        <v>135855</v>
       </c>
       <c r="J24" s="16">
-        <v>61272</v>
+        <v>141636</v>
       </c>
       <c r="K24" s="16">
-        <v>58953</v>
+        <v>153916</v>
       </c>
       <c r="L24" s="16">
-        <v>58884</v>
+        <v>165105</v>
       </c>
       <c r="M24" s="16">
-        <v>96800</v>
+        <v>0</v>
       </c>
       <c r="N24" s="17">
         <v>0</v>
       </c>
-      <c r="O24" s="17">
-        <v>0</v>
-      </c>
-      <c r="P24" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16">
+    </row>
+    <row r="25" spans="3:14">
       <c r="C25" s="3" t="s">
         <v>9</v>
       </c>
@@ -2540,37 +2693,31 @@
         <v>26</v>
       </c>
       <c r="G25" s="16">
-        <v>38104</v>
+        <v>112910</v>
       </c>
       <c r="H25" s="16">
-        <v>43889</v>
+        <v>128424</v>
       </c>
       <c r="I25" s="16">
-        <v>53850</v>
+        <v>136011</v>
       </c>
       <c r="J25" s="16">
-        <v>58658</v>
+        <v>139860</v>
       </c>
       <c r="K25" s="16">
-        <v>59437</v>
+        <v>146572</v>
       </c>
       <c r="L25" s="16">
-        <v>61259</v>
+        <v>158569</v>
       </c>
       <c r="M25" s="16">
-        <v>69540</v>
+        <v>191598</v>
       </c>
       <c r="N25" s="17">
-        <v>61575</v>
-      </c>
-      <c r="O25" s="17">
-        <v>0</v>
-      </c>
-      <c r="P25" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14">
       <c r="C26" s="3" t="s">
         <v>10</v>
       </c>
@@ -2584,37 +2731,31 @@
         <v>27</v>
       </c>
       <c r="G26" s="16">
-        <v>35544</v>
+        <v>151735</v>
       </c>
       <c r="H26" s="16">
-        <v>43304</v>
+        <v>108969</v>
       </c>
       <c r="I26" s="16">
-        <v>51218</v>
+        <v>124207</v>
       </c>
       <c r="J26" s="16">
-        <v>57693</v>
+        <v>143466</v>
       </c>
       <c r="K26" s="16">
-        <v>56998</v>
+        <v>146610</v>
       </c>
       <c r="L26" s="16">
-        <v>61690</v>
+        <v>156402</v>
       </c>
       <c r="M26" s="16">
-        <v>68184</v>
+        <v>169465</v>
       </c>
       <c r="N26" s="17">
-        <v>64609</v>
-      </c>
-      <c r="O26" s="17">
-        <v>60010</v>
-      </c>
-      <c r="P26" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16">
+        <v>172483</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14">
       <c r="C27" s="3" t="s">
         <v>11</v>
       </c>
@@ -2628,37 +2769,31 @@
         <v>28</v>
       </c>
       <c r="G27" s="16">
-        <v>38841</v>
+        <v>0</v>
       </c>
       <c r="H27" s="16">
-        <v>44744</v>
+        <v>127830</v>
       </c>
       <c r="I27" s="16">
-        <v>50594</v>
+        <v>121337</v>
       </c>
       <c r="J27" s="16">
-        <v>58072</v>
+        <v>158923</v>
       </c>
       <c r="K27" s="16">
-        <v>54578</v>
+        <v>141086</v>
       </c>
       <c r="L27" s="16">
-        <v>56947</v>
+        <v>149699</v>
       </c>
       <c r="M27" s="16">
-        <v>60091</v>
+        <v>149547</v>
       </c>
       <c r="N27" s="17">
-        <v>66126</v>
-      </c>
-      <c r="O27" s="17">
-        <v>66698</v>
-      </c>
-      <c r="P27" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16">
+        <v>147326</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14">
       <c r="C28" s="3" t="s">
         <v>12</v>
       </c>
@@ -2672,37 +2807,31 @@
         <v>29</v>
       </c>
       <c r="G28" s="16">
-        <v>34747</v>
+        <v>0</v>
       </c>
       <c r="H28" s="16">
-        <v>38841</v>
+        <v>0</v>
       </c>
       <c r="I28" s="16">
-        <v>50618</v>
+        <v>0</v>
       </c>
       <c r="J28" s="16">
-        <v>57969</v>
+        <v>0</v>
       </c>
       <c r="K28" s="16">
-        <v>52195</v>
+        <v>133961</v>
       </c>
       <c r="L28" s="16">
-        <v>51220</v>
+        <v>150624</v>
       </c>
       <c r="M28" s="16">
-        <v>56018</v>
+        <v>170519</v>
       </c>
       <c r="N28" s="17">
-        <v>63283</v>
-      </c>
-      <c r="O28" s="17">
-        <v>63259</v>
-      </c>
-      <c r="P28" s="17">
-        <v>62103</v>
-      </c>
-    </row>
-    <row r="29" spans="3:16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14">
       <c r="C29" s="4" t="s">
         <v>37</v>
       </c>
@@ -2716,39 +2845,33 @@
         <v>39</v>
       </c>
       <c r="G29" s="16">
-        <v>21133</v>
+        <v>0</v>
       </c>
       <c r="H29" s="16">
-        <v>39292</v>
+        <v>0</v>
       </c>
       <c r="I29" s="16">
-        <v>48921</v>
+        <v>0</v>
       </c>
       <c r="J29" s="16">
-        <v>60454</v>
+        <v>0</v>
       </c>
       <c r="K29" s="16">
-        <v>53182</v>
+        <v>0</v>
       </c>
       <c r="L29" s="16">
-        <v>52265</v>
+        <v>0</v>
       </c>
       <c r="M29" s="16">
-        <v>64665</v>
+        <v>0</v>
       </c>
       <c r="N29" s="17">
-        <v>50801</v>
-      </c>
-      <c r="O29" s="17">
-        <v>62220</v>
-      </c>
-      <c r="P29" s="17">
-        <v>59201</v>
-      </c>
-    </row>
-    <row r="30" spans="3:16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14">
       <c r="C30" s="3" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>21</v>
@@ -2757,37 +2880,31 @@
         <v>72</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G30" s="16">
-        <v>18813</v>
+        <v>0</v>
       </c>
       <c r="H30" s="17">
-        <v>23046</v>
+        <v>0</v>
       </c>
       <c r="I30" s="17">
-        <v>32622</v>
+        <v>0</v>
       </c>
       <c r="J30" s="17">
-        <v>50590</v>
+        <v>0</v>
       </c>
       <c r="K30" s="17">
-        <v>45919</v>
+        <v>0</v>
       </c>
       <c r="L30" s="17">
-        <v>57159</v>
+        <v>0</v>
       </c>
       <c r="M30" s="17">
-        <v>41353</v>
+        <v>0</v>
       </c>
       <c r="N30" s="17">
-        <v>41001</v>
-      </c>
-      <c r="O30" s="17">
-        <v>61947</v>
-      </c>
-      <c r="P30" s="17">
-        <v>57375</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2795,15 +2912,16 @@
     <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{6805DD40-8866-4106-9918-931AAD55B7AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1179E105-16C0-41C6-9FC9-A346646159A7}">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2814,500 +2932,311 @@
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>35</v>
       </c>
       <c r="B4">
-        <v>20200630</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="24">
-      <c r="C6" s="30"/>
-      <c r="D6" s="31" t="s">
+        <v>20190630</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="C6" s="20"/>
+      <c r="D6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="M6" s="30"/>
-      <c r="N6" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q6" s="32" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="C7" s="33" t="s">
+      <c r="F6" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="C7" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="24">
+        <v>47</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="25">
+        <v>92</v>
+      </c>
+      <c r="G7" s="25">
+        <v>4836737</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="C8" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="24">
+        <v>52</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="25">
+        <v>180</v>
+      </c>
+      <c r="G8" s="25">
+        <v>17043554</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="C9" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="24">
+        <v>57</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="25">
+        <v>347</v>
+      </c>
+      <c r="G9" s="25">
+        <v>33811986</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="C10" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="24">
+        <v>62</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="25">
+        <v>344</v>
+      </c>
+      <c r="G10" s="25">
+        <v>39407596</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="C11" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="24">
+        <v>67</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="25">
+        <v>374</v>
+      </c>
+      <c r="G11" s="25">
+        <v>42809609</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="C12" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="24">
+        <v>72</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="25">
+        <v>377</v>
+      </c>
+      <c r="G12" s="25">
+        <v>38998414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="C13" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="24">
+        <v>77</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="25">
+        <v>311</v>
+      </c>
+      <c r="G13" s="25">
+        <v>26683433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="C14" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="24">
         <v>82</v>
       </c>
-      <c r="D7" s="34">
-        <v>42</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="35">
-        <v>48</v>
-      </c>
-      <c r="G7" s="35">
-        <v>299282</v>
-      </c>
-      <c r="M7" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="N7" s="34">
-        <v>42</v>
-      </c>
-      <c r="O7" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="P7" s="35">
-        <v>48</v>
-      </c>
-      <c r="Q7" s="35">
-        <v>299282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="C8" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="34">
-        <v>47</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="35">
-        <v>35</v>
-      </c>
-      <c r="G8" s="35">
-        <v>305303</v>
-      </c>
-      <c r="M8" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="N8" s="34">
-        <v>47</v>
-      </c>
-      <c r="O8" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="P8" s="35">
-        <v>35</v>
-      </c>
-      <c r="Q8" s="35">
-        <v>305303</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="C9" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="34">
-        <v>52</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="35">
-        <v>75</v>
-      </c>
-      <c r="G9" s="35">
-        <v>1080552</v>
-      </c>
-      <c r="M9" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="N9" s="34">
-        <v>52</v>
-      </c>
-      <c r="O9" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="P9" s="35">
-        <v>75</v>
-      </c>
-      <c r="Q9" s="35">
-        <v>1080552</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="C10" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="34">
-        <v>57</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="35">
-        <v>167</v>
-      </c>
-      <c r="G10" s="35">
-        <v>2621153</v>
-      </c>
-      <c r="M10" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="N10" s="34">
-        <v>57</v>
-      </c>
-      <c r="O10" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="P10" s="35">
-        <v>167</v>
-      </c>
-      <c r="Q10" s="35">
-        <v>2621153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="C11" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="34">
-        <v>62</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="35">
-        <v>911</v>
-      </c>
-      <c r="G11" s="35">
-        <v>15151083</v>
-      </c>
-      <c r="M11" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="N11" s="34">
-        <v>62</v>
-      </c>
-      <c r="O11" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="P11" s="35">
-        <v>911</v>
-      </c>
-      <c r="Q11" s="35">
-        <v>15151083</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="C12" s="33" t="s">
+      <c r="E14" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="25">
+        <v>178</v>
+      </c>
+      <c r="G14" s="25">
+        <v>14016345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="C15" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="24">
         <v>87</v>
       </c>
-      <c r="D12" s="34">
-        <v>67</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="35">
-        <v>1812</v>
-      </c>
-      <c r="G12" s="35">
-        <v>27977407</v>
-      </c>
-      <c r="M12" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="N12" s="34">
-        <v>67</v>
-      </c>
-      <c r="O12" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="P12" s="35">
-        <v>1812</v>
-      </c>
-      <c r="Q12" s="35">
-        <v>27977407</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="C13" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="34">
-        <v>72</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="35">
-        <v>1646</v>
-      </c>
-      <c r="G13" s="35">
-        <v>23895970</v>
-      </c>
-      <c r="M13" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="N13" s="34">
-        <v>72</v>
-      </c>
-      <c r="O13" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="P13" s="35">
-        <v>1646</v>
-      </c>
-      <c r="Q13" s="35">
-        <v>23895970</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="C14" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="34">
-        <v>77</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="35">
-        <v>1144</v>
-      </c>
-      <c r="G14" s="35">
-        <v>14802666</v>
-      </c>
-      <c r="M14" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="N14" s="34">
-        <v>77</v>
-      </c>
-      <c r="O14" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="P14" s="35">
-        <v>1144</v>
-      </c>
-      <c r="Q14" s="35">
-        <v>14802666</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="C15" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="34">
-        <v>82</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="35">
-        <v>806</v>
-      </c>
-      <c r="G15" s="35">
-        <v>9906934</v>
-      </c>
-      <c r="M15" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="N15" s="34">
-        <v>82</v>
-      </c>
-      <c r="O15" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="P15" s="35">
-        <v>806</v>
-      </c>
-      <c r="Q15" s="35">
-        <v>9906934</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="C16" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" s="34">
-        <v>87</v>
-      </c>
-      <c r="E16" s="34" t="s">
+      <c r="E15" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="25">
         <v>78</v>
       </c>
-      <c r="F16" s="35">
-        <v>493</v>
-      </c>
-      <c r="G16" s="35">
-        <v>5381150</v>
-      </c>
-      <c r="M16" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="N16" s="34">
-        <v>87</v>
-      </c>
-      <c r="O16" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="P16" s="35">
-        <v>493</v>
-      </c>
-      <c r="Q16" s="35">
-        <v>5381150</v>
-      </c>
-    </row>
-    <row r="17" spans="3:17">
-      <c r="C17" s="33" t="s">
+      <c r="G15" s="25">
+        <v>4771643</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="C16" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="24">
         <v>92</v>
       </c>
-      <c r="D17" s="34">
-        <v>92</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="36">
-        <v>347</v>
-      </c>
-      <c r="G17" s="36">
-        <v>3133980</v>
-      </c>
-      <c r="M17" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="N17" s="34">
-        <v>92</v>
-      </c>
-      <c r="O17" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="P17" s="36">
-        <v>347</v>
-      </c>
-      <c r="Q17" s="36">
-        <v>3133980</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17">
+      <c r="E16" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="26">
+        <v>37</v>
+      </c>
+      <c r="G16" s="26">
+        <v>1923706</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18" spans="3:6">
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="3:17">
+    <row r="19" spans="3:6">
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="18"/>
     </row>
-    <row r="20" spans="3:17">
+    <row r="20" spans="3:6">
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
       <c r="F20" s="18"/>
     </row>
-    <row r="21" spans="3:17">
+    <row r="21" spans="3:6">
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="3:17">
+    <row r="22" spans="3:6">
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
       <c r="F22" s="18"/>
     </row>
-    <row r="23" spans="3:17">
+    <row r="23" spans="3:6">
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="18"/>
     </row>
-    <row r="24" spans="3:17">
+    <row r="24" spans="3:6">
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
       <c r="F24" s="18"/>
     </row>
-    <row r="25" spans="3:17">
+    <row r="25" spans="3:6">
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
       <c r="F25" s="18"/>
     </row>
-    <row r="26" spans="3:17">
+    <row r="26" spans="3:6">
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
       <c r="F26" s="18"/>
     </row>
-    <row r="27" spans="3:17">
+    <row r="27" spans="3:6">
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
       <c r="F27" s="18"/>
     </row>
-    <row r="28" spans="3:17">
+    <row r="28" spans="3:6">
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
       <c r="F28" s="18"/>
     </row>
-    <row r="29" spans="3:17">
+    <row r="29" spans="3:6">
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="18"/>
     </row>
-    <row r="30" spans="3:17">
+    <row r="30" spans="3:6">
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
       <c r="F30" s="18"/>
     </row>
-    <row r="31" spans="3:17">
+    <row r="31" spans="3:6">
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="18"/>
     </row>
-    <row r="32" spans="3:17">
+    <row r="32" spans="3:6">
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
@@ -3451,30 +3380,790 @@
       <c r="E55" s="19"/>
       <c r="F55" s="18"/>
     </row>
-    <row r="56" spans="3:6">
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="18"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{F1D66FAF-25D0-4C53-A5DB-A59806D9A5F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86E88DF-A66D-4D5B-9543-81B9EF75DDB4}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="9" width="11.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="40" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="63.75">
+      <c r="B4" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="72"/>
+      <c r="G4" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="J4" s="45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="47">
+        <v>24</v>
+      </c>
+      <c r="C5" s="48">
+        <v>9</v>
+      </c>
+      <c r="D5" s="48">
+        <v>0</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="50">
+        <v>0</v>
+      </c>
+      <c r="G5" s="47">
+        <v>0</v>
+      </c>
+      <c r="H5" s="47">
+        <v>0</v>
+      </c>
+      <c r="I5" s="51">
+        <v>0</v>
+      </c>
+      <c r="J5" s="47">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="47">
+        <v>72</v>
+      </c>
+      <c r="C6" s="48">
+        <v>108</v>
+      </c>
+      <c r="D6" s="48">
+        <v>9</v>
+      </c>
+      <c r="E6" s="47">
+        <v>0</v>
+      </c>
+      <c r="F6" s="51">
+        <v>0</v>
+      </c>
+      <c r="G6" s="47">
+        <v>0</v>
+      </c>
+      <c r="H6" s="47">
+        <v>0</v>
+      </c>
+      <c r="I6" s="51">
+        <v>0</v>
+      </c>
+      <c r="J6" s="47">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="47">
+        <v>35</v>
+      </c>
+      <c r="C7" s="48">
+        <v>125</v>
+      </c>
+      <c r="D7" s="48">
+        <v>56</v>
+      </c>
+      <c r="E7" s="47">
+        <v>10</v>
+      </c>
+      <c r="F7" s="51">
+        <v>0</v>
+      </c>
+      <c r="G7" s="47">
+        <v>0</v>
+      </c>
+      <c r="H7" s="47">
+        <v>0</v>
+      </c>
+      <c r="I7" s="51">
+        <v>0</v>
+      </c>
+      <c r="J7" s="47">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="47">
+        <v>14</v>
+      </c>
+      <c r="C8" s="48">
+        <v>52</v>
+      </c>
+      <c r="D8" s="48">
+        <v>75</v>
+      </c>
+      <c r="E8" s="47">
+        <v>100</v>
+      </c>
+      <c r="F8" s="51">
+        <v>7</v>
+      </c>
+      <c r="G8" s="47">
+        <v>0</v>
+      </c>
+      <c r="H8" s="47">
+        <v>0</v>
+      </c>
+      <c r="I8" s="51">
+        <v>0</v>
+      </c>
+      <c r="J8" s="47">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="47">
+        <v>6</v>
+      </c>
+      <c r="C9" s="48">
+        <v>21</v>
+      </c>
+      <c r="D9" s="48">
+        <v>39</v>
+      </c>
+      <c r="E9" s="52">
+        <v>110</v>
+      </c>
+      <c r="F9" s="51">
+        <v>82</v>
+      </c>
+      <c r="G9" s="47">
+        <v>14</v>
+      </c>
+      <c r="H9" s="47">
+        <v>0</v>
+      </c>
+      <c r="I9" s="51">
+        <v>0</v>
+      </c>
+      <c r="J9" s="47">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="47">
+        <v>4</v>
+      </c>
+      <c r="C10" s="48">
+        <v>4</v>
+      </c>
+      <c r="D10" s="48">
+        <v>12</v>
+      </c>
+      <c r="E10" s="47">
+        <v>56</v>
+      </c>
+      <c r="F10" s="51">
+        <v>104</v>
+      </c>
+      <c r="G10" s="47">
+        <v>162</v>
+      </c>
+      <c r="H10" s="47">
+        <v>11</v>
+      </c>
+      <c r="I10" s="51">
+        <v>0</v>
+      </c>
+      <c r="J10" s="47">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="47">
+        <v>1</v>
+      </c>
+      <c r="C11" s="48">
+        <v>1</v>
+      </c>
+      <c r="D11" s="48">
+        <v>2</v>
+      </c>
+      <c r="E11" s="47">
+        <v>24</v>
+      </c>
+      <c r="F11" s="51">
+        <v>55</v>
+      </c>
+      <c r="G11" s="47">
+        <v>167</v>
+      </c>
+      <c r="H11" s="47">
+        <v>46</v>
+      </c>
+      <c r="I11" s="51">
+        <v>3</v>
+      </c>
+      <c r="J11" s="47">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="47">
+        <v>0</v>
+      </c>
+      <c r="C12" s="48">
+        <v>2</v>
+      </c>
+      <c r="D12" s="48">
+        <v>1</v>
+      </c>
+      <c r="E12" s="47">
+        <v>2</v>
+      </c>
+      <c r="F12" s="51">
+        <v>15</v>
+      </c>
+      <c r="G12" s="47">
+        <v>36</v>
+      </c>
+      <c r="H12" s="47">
+        <v>18</v>
+      </c>
+      <c r="I12" s="51">
+        <v>1</v>
+      </c>
+      <c r="J12" s="47">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="47">
+        <v>0</v>
+      </c>
+      <c r="C13" s="48">
+        <v>0</v>
+      </c>
+      <c r="D13" s="48">
+        <v>0</v>
+      </c>
+      <c r="E13" s="47">
+        <v>0</v>
+      </c>
+      <c r="F13" s="51">
+        <v>3</v>
+      </c>
+      <c r="G13" s="47">
+        <v>2</v>
+      </c>
+      <c r="H13" s="52">
+        <v>1</v>
+      </c>
+      <c r="I13" s="51">
+        <v>0</v>
+      </c>
+      <c r="J13" s="47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="47">
+        <v>0</v>
+      </c>
+      <c r="C14" s="48">
+        <v>0</v>
+      </c>
+      <c r="D14" s="48">
+        <v>0</v>
+      </c>
+      <c r="E14" s="47">
+        <v>0</v>
+      </c>
+      <c r="F14" s="51">
+        <v>0</v>
+      </c>
+      <c r="G14" s="47">
+        <v>0</v>
+      </c>
+      <c r="H14" s="47">
+        <v>0</v>
+      </c>
+      <c r="I14" s="51">
+        <v>0</v>
+      </c>
+      <c r="J14" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
+      <c r="B15" s="53">
+        <v>0</v>
+      </c>
+      <c r="C15" s="54">
+        <v>0</v>
+      </c>
+      <c r="D15" s="54">
+        <v>0</v>
+      </c>
+      <c r="E15" s="53">
+        <v>0</v>
+      </c>
+      <c r="F15" s="55">
+        <v>0</v>
+      </c>
+      <c r="G15" s="53">
+        <v>0</v>
+      </c>
+      <c r="H15" s="56">
+        <v>0</v>
+      </c>
+      <c r="I15" s="55">
+        <v>0</v>
+      </c>
+      <c r="J15" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickTop="1">
+      <c r="B16" s="57">
+        <v>156</v>
+      </c>
+      <c r="C16" s="58">
+        <v>322</v>
+      </c>
+      <c r="D16" s="58">
+        <v>194</v>
+      </c>
+      <c r="E16" s="57">
+        <v>302</v>
+      </c>
+      <c r="F16" s="59">
+        <v>266</v>
+      </c>
+      <c r="G16" s="57">
+        <v>381</v>
+      </c>
+      <c r="H16" s="57">
+        <v>76</v>
+      </c>
+      <c r="I16" s="59">
+        <v>4</v>
+      </c>
+      <c r="J16" s="60">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="61" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="73"/>
+      <c r="G20" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="J20" s="41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="66">
+        <v>103799</v>
+      </c>
+      <c r="C21" s="66">
+        <v>110446</v>
+      </c>
+      <c r="D21" s="66">
+        <v>0</v>
+      </c>
+      <c r="E21" s="66">
+        <v>0</v>
+      </c>
+      <c r="F21" s="66">
+        <v>0</v>
+      </c>
+      <c r="G21" s="66">
+        <v>0</v>
+      </c>
+      <c r="H21" s="66">
+        <v>0</v>
+      </c>
+      <c r="I21" s="66">
+        <v>0</v>
+      </c>
+      <c r="J21" s="67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="66">
+        <v>102715</v>
+      </c>
+      <c r="C22" s="66">
+        <v>113854</v>
+      </c>
+      <c r="D22" s="66">
+        <v>137451</v>
+      </c>
+      <c r="E22" s="66">
+        <v>0</v>
+      </c>
+      <c r="F22" s="66">
+        <v>0</v>
+      </c>
+      <c r="G22" s="66">
+        <v>0</v>
+      </c>
+      <c r="H22" s="66">
+        <v>0</v>
+      </c>
+      <c r="I22" s="66">
+        <v>0</v>
+      </c>
+      <c r="J22" s="67">
+        <v>110734</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="66">
+        <v>104131</v>
+      </c>
+      <c r="C23" s="66">
+        <v>115691</v>
+      </c>
+      <c r="D23" s="66">
+        <v>138932</v>
+      </c>
+      <c r="E23" s="66">
+        <v>140531</v>
+      </c>
+      <c r="F23" s="66">
+        <v>0</v>
+      </c>
+      <c r="G23" s="66">
+        <v>0</v>
+      </c>
+      <c r="H23" s="66">
+        <v>0</v>
+      </c>
+      <c r="I23" s="66">
+        <v>0</v>
+      </c>
+      <c r="J23" s="67">
+        <v>120758</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="66">
+        <v>101048</v>
+      </c>
+      <c r="C24" s="66">
+        <v>118417</v>
+      </c>
+      <c r="D24" s="66">
+        <v>136831</v>
+      </c>
+      <c r="E24" s="66">
+        <v>145149</v>
+      </c>
+      <c r="F24" s="66">
+        <v>160194</v>
+      </c>
+      <c r="G24" s="66">
+        <v>0</v>
+      </c>
+      <c r="H24" s="66">
+        <v>0</v>
+      </c>
+      <c r="I24" s="66">
+        <v>0</v>
+      </c>
+      <c r="J24" s="67">
+        <v>134964</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="66">
+        <v>92443</v>
+      </c>
+      <c r="C25" s="66">
+        <v>116496</v>
+      </c>
+      <c r="D25" s="66">
+        <v>135855</v>
+      </c>
+      <c r="E25" s="66">
+        <v>141636</v>
+      </c>
+      <c r="F25" s="66">
+        <v>153916</v>
+      </c>
+      <c r="G25" s="66">
+        <v>165105</v>
+      </c>
+      <c r="H25" s="66">
+        <v>0</v>
+      </c>
+      <c r="I25" s="66">
+        <v>0</v>
+      </c>
+      <c r="J25" s="67">
+        <v>142691</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="66">
+        <v>112910</v>
+      </c>
+      <c r="C26" s="66">
+        <v>128424</v>
+      </c>
+      <c r="D26" s="66">
+        <v>136011</v>
+      </c>
+      <c r="E26" s="66">
+        <v>139860</v>
+      </c>
+      <c r="F26" s="66">
+        <v>146572</v>
+      </c>
+      <c r="G26" s="66">
+        <v>158569</v>
+      </c>
+      <c r="H26" s="66">
+        <v>191598</v>
+      </c>
+      <c r="I26" s="66">
+        <v>0</v>
+      </c>
+      <c r="J26" s="67">
+        <v>151470</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="66">
+        <v>151735</v>
+      </c>
+      <c r="C27" s="66">
+        <v>108969</v>
+      </c>
+      <c r="D27" s="66">
+        <v>124207</v>
+      </c>
+      <c r="E27" s="66">
+        <v>143466</v>
+      </c>
+      <c r="F27" s="66">
+        <v>146610</v>
+      </c>
+      <c r="G27" s="66">
+        <v>156402</v>
+      </c>
+      <c r="H27" s="66">
+        <v>169465</v>
+      </c>
+      <c r="I27" s="66">
+        <v>172483</v>
+      </c>
+      <c r="J27" s="67">
+        <v>155344</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="66">
+        <v>0</v>
+      </c>
+      <c r="C28" s="66">
+        <v>127830</v>
+      </c>
+      <c r="D28" s="66">
+        <v>121337</v>
+      </c>
+      <c r="E28" s="66">
+        <v>158923</v>
+      </c>
+      <c r="F28" s="66">
+        <v>141086</v>
+      </c>
+      <c r="G28" s="66">
+        <v>149699</v>
+      </c>
+      <c r="H28" s="66">
+        <v>149547</v>
+      </c>
+      <c r="I28" s="66">
+        <v>147326</v>
+      </c>
+      <c r="J28" s="67">
+        <v>147193</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="66">
+        <v>0</v>
+      </c>
+      <c r="C29" s="66">
+        <v>0</v>
+      </c>
+      <c r="D29" s="66">
+        <v>0</v>
+      </c>
+      <c r="E29" s="66">
+        <v>0</v>
+      </c>
+      <c r="F29" s="66">
+        <v>133961</v>
+      </c>
+      <c r="G29" s="66">
+        <v>150624</v>
+      </c>
+      <c r="H29" s="66">
+        <v>170519</v>
+      </c>
+      <c r="I29" s="66">
+        <v>0</v>
+      </c>
+      <c r="J29" s="67">
+        <v>145608</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="66">
+        <v>0</v>
+      </c>
+      <c r="C30" s="66">
+        <v>0</v>
+      </c>
+      <c r="D30" s="66">
+        <v>0</v>
+      </c>
+      <c r="E30" s="66">
+        <v>0</v>
+      </c>
+      <c r="F30" s="66">
+        <v>0</v>
+      </c>
+      <c r="G30" s="66">
+        <v>0</v>
+      </c>
+      <c r="H30" s="66">
+        <v>0</v>
+      </c>
+      <c r="I30" s="66">
+        <v>0</v>
+      </c>
+      <c r="J30" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B31" s="68">
+        <v>0</v>
+      </c>
+      <c r="C31" s="68">
+        <v>0</v>
+      </c>
+      <c r="D31" s="68">
+        <v>0</v>
+      </c>
+      <c r="E31" s="68">
+        <v>0</v>
+      </c>
+      <c r="F31" s="68">
+        <v>0</v>
+      </c>
+      <c r="G31" s="68">
+        <v>0</v>
+      </c>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="15.75" thickTop="1">
+      <c r="B32" s="63">
+        <v>103230</v>
+      </c>
+      <c r="C32" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="G32" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="H32" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="I32" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="J32" s="65" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E20:F20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3482,365 +4171,165 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F08D4E-591D-474D-A8D2-370BC4CDCCC6}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="5" width="13.42578125" customWidth="1"/>
+    <col min="4" max="5" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1"/>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="C13" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="C14" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="C15" s="20" t="s">
-        <v>46</v>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="C4" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="C5" s="30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" customHeight="1">
+      <c r="C6" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="C7" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="34">
+        <v>92</v>
+      </c>
+      <c r="E7" s="71">
+        <v>4836737</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="C8" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="34">
+        <v>180</v>
+      </c>
+      <c r="E8" s="35">
+        <v>17043554</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="C9" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="34">
+        <v>347</v>
+      </c>
+      <c r="E9" s="35">
+        <v>33811986</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="C10" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="34">
+        <v>344</v>
+      </c>
+      <c r="E10" s="35">
+        <v>39407596</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="C11" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="34">
+        <v>374</v>
+      </c>
+      <c r="E11" s="35">
+        <v>42809609</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="C12" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="34">
+        <v>377</v>
+      </c>
+      <c r="E12" s="35">
+        <v>38998414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="C13" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="36">
+        <v>311</v>
+      </c>
+      <c r="E13" s="35">
+        <v>26683433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="C14" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="34">
+        <v>178</v>
+      </c>
+      <c r="E14" s="35">
+        <v>14016345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="C15" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="34">
+        <v>78</v>
+      </c>
+      <c r="E15" s="35">
+        <v>4771643</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="C16" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="34">
+        <v>37</v>
+      </c>
+      <c r="E16" s="37">
+        <v>1923706</v>
       </c>
     </row>
     <row r="17" spans="3:5">
-      <c r="C17" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5">
-      <c r="C18" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5">
-      <c r="C19" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="24">
-        <v>48</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="24">
-        <v>35</v>
-      </c>
-      <c r="E20" s="26">
-        <v>305303</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="24">
-        <v>75</v>
-      </c>
-      <c r="E21" s="26">
-        <v>1080552</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="24">
-        <v>167</v>
-      </c>
-      <c r="E22" s="26">
-        <v>2621153</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="24">
-        <v>911</v>
-      </c>
-      <c r="E23" s="26">
-        <v>15151083</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5">
-      <c r="C24" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="26">
-        <v>1812</v>
-      </c>
-      <c r="E24" s="26">
-        <v>27977407</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5">
-      <c r="C25" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="26">
-        <v>1646</v>
-      </c>
-      <c r="E25" s="26">
-        <v>23895970</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5">
-      <c r="C26" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="26">
-        <v>1144</v>
-      </c>
-      <c r="E26" s="26">
-        <v>14802666</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5">
-      <c r="C27" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="24">
-        <v>806</v>
-      </c>
-      <c r="E27" s="26">
-        <v>9906934</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5">
-      <c r="C28" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="24">
-        <v>493</v>
-      </c>
-      <c r="E28" s="26">
-        <v>5381150</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5">
-      <c r="C29" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="27">
-        <v>347</v>
-      </c>
-      <c r="E29" s="28">
-        <v>3133980</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5">
-      <c r="C30" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="29">
-        <v>7484</v>
-      </c>
-      <c r="E30" s="40">
-        <v>104555480</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5">
-      <c r="C33" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5">
-      <c r="C34" s="20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5">
-      <c r="C35" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5">
-      <c r="C36" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="24">
-        <v>16</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5">
-      <c r="C37" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="24">
-        <v>58</v>
-      </c>
-      <c r="E37" s="26">
-        <v>1707096</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5">
-      <c r="C38" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="24">
-        <v>186</v>
-      </c>
-      <c r="E38" s="26">
-        <v>5764136</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5">
-      <c r="C39" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" s="24">
-        <v>305</v>
-      </c>
-      <c r="E39" s="26">
-        <v>9227742</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5">
-      <c r="C40" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="24">
-        <v>315</v>
-      </c>
-      <c r="E40" s="26">
-        <v>9743620</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5">
-      <c r="C41" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D41" s="24">
-        <v>390</v>
-      </c>
-      <c r="E41" s="26">
-        <v>11629598</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5">
-      <c r="C42" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="24">
-        <v>464</v>
-      </c>
-      <c r="E42" s="26">
-        <v>12022476</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5">
-      <c r="C43" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="24">
-        <v>320</v>
-      </c>
-      <c r="E43" s="26">
-        <v>7956815</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5">
-      <c r="C44" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D44" s="24">
-        <v>169</v>
-      </c>
-      <c r="E44" s="26">
-        <v>3671738</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5">
-      <c r="C45" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D45" s="24">
-        <v>94</v>
-      </c>
-      <c r="E45" s="26">
-        <v>1885703</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5">
-      <c r="C46" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D46" s="24">
-        <v>59</v>
-      </c>
-      <c r="E46" s="28">
-        <v>1073531</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5">
-      <c r="C47" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D47" s="26">
-        <v>2376</v>
-      </c>
-      <c r="E47" s="40">
-        <v>64952714</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5">
-      <c r="E49" s="41">
-        <f>E30+E47</f>
-        <v>169508194</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5">
-      <c r="B56" t="s">
-        <v>41</v>
+      <c r="C17" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="38">
+        <v>2318</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{13697FD0-04D1-4E9B-9ED1-D709EA1A5DBF}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/inputs/data_raw/Data_SJPF_Demographics_20190630.xlsx
+++ b/inputs/data_raw/Data_SJPF_Demographics_20190630.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Proj_CAPlans\model_SJ\inputs\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCFCF32-C0BC-439C-9022-7656A0EEE0FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E98A17-553B-498C-9761-14762BDE8166}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="other" sheetId="37" r:id="rId1"/>
@@ -1092,9 +1092,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1118,6 +1115,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1928,8 +1928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF5E2A8-8066-4C09-9596-AB1EEC0396D2}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3391,10 +3391,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86E88DF-A66D-4D5B-9543-81B9EF75DDB4}">
-  <dimension ref="A2:J32"/>
+  <dimension ref="A2:J34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:I31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3418,10 +3418,10 @@
       <c r="D4" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="F4" s="72"/>
+      <c r="F4" s="71"/>
       <c r="G4" s="44" t="s">
         <v>89</v>
       </c>
@@ -3798,10 +3798,10 @@
       <c r="D20" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="E20" s="73" t="s">
+      <c r="E20" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="F20" s="73"/>
+      <c r="F20" s="72"/>
       <c r="G20" s="62" t="s">
         <v>97</v>
       </c>
@@ -3816,317 +3816,317 @@
       </c>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="66">
+      <c r="B21" s="65">
         <v>103799</v>
       </c>
-      <c r="C21" s="66">
+      <c r="C21" s="65">
         <v>110446</v>
       </c>
-      <c r="D21" s="66">
-        <v>0</v>
-      </c>
-      <c r="E21" s="66">
-        <v>0</v>
-      </c>
-      <c r="F21" s="66">
-        <v>0</v>
-      </c>
-      <c r="G21" s="66">
-        <v>0</v>
-      </c>
-      <c r="H21" s="66">
-        <v>0</v>
-      </c>
-      <c r="I21" s="66">
-        <v>0</v>
-      </c>
-      <c r="J21" s="67" t="s">
+      <c r="D21" s="65">
+        <v>0</v>
+      </c>
+      <c r="E21" s="65">
+        <v>0</v>
+      </c>
+      <c r="F21" s="65">
+        <v>0</v>
+      </c>
+      <c r="G21" s="65">
+        <v>0</v>
+      </c>
+      <c r="H21" s="65">
+        <v>0</v>
+      </c>
+      <c r="I21" s="65">
+        <v>0</v>
+      </c>
+      <c r="J21" s="66" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="66">
+      <c r="B22" s="65">
         <v>102715</v>
       </c>
-      <c r="C22" s="66">
+      <c r="C22" s="65">
         <v>113854</v>
       </c>
-      <c r="D22" s="66">
+      <c r="D22" s="65">
         <v>137451</v>
       </c>
-      <c r="E22" s="66">
-        <v>0</v>
-      </c>
-      <c r="F22" s="66">
-        <v>0</v>
-      </c>
-      <c r="G22" s="66">
-        <v>0</v>
-      </c>
-      <c r="H22" s="66">
-        <v>0</v>
-      </c>
-      <c r="I22" s="66">
-        <v>0</v>
-      </c>
-      <c r="J22" s="67">
+      <c r="E22" s="65">
+        <v>0</v>
+      </c>
+      <c r="F22" s="65">
+        <v>0</v>
+      </c>
+      <c r="G22" s="65">
+        <v>0</v>
+      </c>
+      <c r="H22" s="65">
+        <v>0</v>
+      </c>
+      <c r="I22" s="65">
+        <v>0</v>
+      </c>
+      <c r="J22" s="66">
         <v>110734</v>
       </c>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="66">
+      <c r="B23" s="65">
         <v>104131</v>
       </c>
-      <c r="C23" s="66">
+      <c r="C23" s="65">
         <v>115691</v>
       </c>
-      <c r="D23" s="66">
+      <c r="D23" s="65">
         <v>138932</v>
       </c>
-      <c r="E23" s="66">
+      <c r="E23" s="65">
         <v>140531</v>
       </c>
-      <c r="F23" s="66">
-        <v>0</v>
-      </c>
-      <c r="G23" s="66">
-        <v>0</v>
-      </c>
-      <c r="H23" s="66">
-        <v>0</v>
-      </c>
-      <c r="I23" s="66">
-        <v>0</v>
-      </c>
-      <c r="J23" s="67">
+      <c r="F23" s="65">
+        <v>0</v>
+      </c>
+      <c r="G23" s="65">
+        <v>0</v>
+      </c>
+      <c r="H23" s="65">
+        <v>0</v>
+      </c>
+      <c r="I23" s="65">
+        <v>0</v>
+      </c>
+      <c r="J23" s="66">
         <v>120758</v>
       </c>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="66">
+      <c r="B24" s="65">
         <v>101048</v>
       </c>
-      <c r="C24" s="66">
+      <c r="C24" s="65">
         <v>118417</v>
       </c>
-      <c r="D24" s="66">
+      <c r="D24" s="65">
         <v>136831</v>
       </c>
-      <c r="E24" s="66">
+      <c r="E24" s="65">
         <v>145149</v>
       </c>
-      <c r="F24" s="66">
+      <c r="F24" s="65">
         <v>160194</v>
       </c>
-      <c r="G24" s="66">
-        <v>0</v>
-      </c>
-      <c r="H24" s="66">
-        <v>0</v>
-      </c>
-      <c r="I24" s="66">
-        <v>0</v>
-      </c>
-      <c r="J24" s="67">
+      <c r="G24" s="65">
+        <v>0</v>
+      </c>
+      <c r="H24" s="65">
+        <v>0</v>
+      </c>
+      <c r="I24" s="65">
+        <v>0</v>
+      </c>
+      <c r="J24" s="66">
         <v>134964</v>
       </c>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="66">
+      <c r="B25" s="65">
         <v>92443</v>
       </c>
-      <c r="C25" s="66">
+      <c r="C25" s="65">
         <v>116496</v>
       </c>
-      <c r="D25" s="66">
+      <c r="D25" s="65">
         <v>135855</v>
       </c>
-      <c r="E25" s="66">
+      <c r="E25" s="65">
         <v>141636</v>
       </c>
-      <c r="F25" s="66">
+      <c r="F25" s="65">
         <v>153916</v>
       </c>
-      <c r="G25" s="66">
+      <c r="G25" s="65">
         <v>165105</v>
       </c>
-      <c r="H25" s="66">
-        <v>0</v>
-      </c>
-      <c r="I25" s="66">
-        <v>0</v>
-      </c>
-      <c r="J25" s="67">
+      <c r="H25" s="65">
+        <v>0</v>
+      </c>
+      <c r="I25" s="65">
+        <v>0</v>
+      </c>
+      <c r="J25" s="66">
         <v>142691</v>
       </c>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="66">
+      <c r="B26" s="65">
         <v>112910</v>
       </c>
-      <c r="C26" s="66">
+      <c r="C26" s="65">
         <v>128424</v>
       </c>
-      <c r="D26" s="66">
+      <c r="D26" s="65">
         <v>136011</v>
       </c>
-      <c r="E26" s="66">
+      <c r="E26" s="65">
         <v>139860</v>
       </c>
-      <c r="F26" s="66">
+      <c r="F26" s="65">
         <v>146572</v>
       </c>
-      <c r="G26" s="66">
+      <c r="G26" s="65">
         <v>158569</v>
       </c>
-      <c r="H26" s="66">
+      <c r="H26" s="65">
         <v>191598</v>
       </c>
-      <c r="I26" s="66">
-        <v>0</v>
-      </c>
-      <c r="J26" s="67">
+      <c r="I26" s="65">
+        <v>0</v>
+      </c>
+      <c r="J26" s="66">
         <v>151470</v>
       </c>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="66">
+      <c r="B27" s="65">
         <v>151735</v>
       </c>
-      <c r="C27" s="66">
+      <c r="C27" s="65">
         <v>108969</v>
       </c>
-      <c r="D27" s="66">
+      <c r="D27" s="65">
         <v>124207</v>
       </c>
-      <c r="E27" s="66">
+      <c r="E27" s="65">
         <v>143466</v>
       </c>
-      <c r="F27" s="66">
+      <c r="F27" s="65">
         <v>146610</v>
       </c>
-      <c r="G27" s="66">
+      <c r="G27" s="65">
         <v>156402</v>
       </c>
-      <c r="H27" s="66">
+      <c r="H27" s="65">
         <v>169465</v>
       </c>
-      <c r="I27" s="66">
+      <c r="I27" s="65">
         <v>172483</v>
       </c>
-      <c r="J27" s="67">
+      <c r="J27" s="66">
         <v>155344</v>
       </c>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="66">
-        <v>0</v>
-      </c>
-      <c r="C28" s="66">
+      <c r="B28" s="65">
+        <v>0</v>
+      </c>
+      <c r="C28" s="65">
         <v>127830</v>
       </c>
-      <c r="D28" s="66">
+      <c r="D28" s="65">
         <v>121337</v>
       </c>
-      <c r="E28" s="66">
+      <c r="E28" s="65">
         <v>158923</v>
       </c>
-      <c r="F28" s="66">
+      <c r="F28" s="65">
         <v>141086</v>
       </c>
-      <c r="G28" s="66">
+      <c r="G28" s="65">
         <v>149699</v>
       </c>
-      <c r="H28" s="66">
+      <c r="H28" s="65">
         <v>149547</v>
       </c>
-      <c r="I28" s="66">
+      <c r="I28" s="65">
         <v>147326</v>
       </c>
-      <c r="J28" s="67">
+      <c r="J28" s="66">
         <v>147193</v>
       </c>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="66">
-        <v>0</v>
-      </c>
-      <c r="C29" s="66">
-        <v>0</v>
-      </c>
-      <c r="D29" s="66">
-        <v>0</v>
-      </c>
-      <c r="E29" s="66">
-        <v>0</v>
-      </c>
-      <c r="F29" s="66">
+      <c r="B29" s="65">
+        <v>0</v>
+      </c>
+      <c r="C29" s="65">
+        <v>0</v>
+      </c>
+      <c r="D29" s="65">
+        <v>0</v>
+      </c>
+      <c r="E29" s="65">
+        <v>0</v>
+      </c>
+      <c r="F29" s="65">
         <v>133961</v>
       </c>
-      <c r="G29" s="66">
+      <c r="G29" s="65">
         <v>150624</v>
       </c>
-      <c r="H29" s="66">
+      <c r="H29" s="65">
         <v>170519</v>
       </c>
-      <c r="I29" s="66">
-        <v>0</v>
-      </c>
-      <c r="J29" s="67">
+      <c r="I29" s="65">
+        <v>0</v>
+      </c>
+      <c r="J29" s="66">
         <v>145608</v>
       </c>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="66">
-        <v>0</v>
-      </c>
-      <c r="C30" s="66">
-        <v>0</v>
-      </c>
-      <c r="D30" s="66">
-        <v>0</v>
-      </c>
-      <c r="E30" s="66">
-        <v>0</v>
-      </c>
-      <c r="F30" s="66">
-        <v>0</v>
-      </c>
-      <c r="G30" s="66">
-        <v>0</v>
-      </c>
-      <c r="H30" s="66">
-        <v>0</v>
-      </c>
-      <c r="I30" s="66">
-        <v>0</v>
-      </c>
-      <c r="J30" s="67">
+      <c r="B30" s="65">
+        <v>0</v>
+      </c>
+      <c r="C30" s="65">
+        <v>0</v>
+      </c>
+      <c r="D30" s="65">
+        <v>0</v>
+      </c>
+      <c r="E30" s="65">
+        <v>0</v>
+      </c>
+      <c r="F30" s="65">
+        <v>0</v>
+      </c>
+      <c r="G30" s="65">
+        <v>0</v>
+      </c>
+      <c r="H30" s="65">
+        <v>0</v>
+      </c>
+      <c r="I30" s="65">
+        <v>0</v>
+      </c>
+      <c r="J30" s="66">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B31" s="68">
-        <v>0</v>
-      </c>
-      <c r="C31" s="68">
-        <v>0</v>
-      </c>
-      <c r="D31" s="68">
-        <v>0</v>
-      </c>
-      <c r="E31" s="68">
-        <v>0</v>
-      </c>
-      <c r="F31" s="68">
-        <v>0</v>
-      </c>
-      <c r="G31" s="68">
-        <v>0</v>
-      </c>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="70">
+      <c r="B31" s="67">
+        <v>0</v>
+      </c>
+      <c r="C31" s="67">
+        <v>0</v>
+      </c>
+      <c r="D31" s="67">
+        <v>0</v>
+      </c>
+      <c r="E31" s="67">
+        <v>0</v>
+      </c>
+      <c r="F31" s="67">
+        <v>0</v>
+      </c>
+      <c r="G31" s="67">
+        <v>0</v>
+      </c>
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="69">
         <v>0</v>
       </c>
     </row>
@@ -4155,8 +4155,14 @@
       <c r="I32" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="J32" s="65" t="s">
+      <c r="J32" s="73" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="10:10">
+      <c r="J34" s="40">
+        <f>J16*J32</f>
+        <v>235818135</v>
       </c>
     </row>
   </sheetData>
@@ -4215,7 +4221,7 @@
       <c r="D7" s="34">
         <v>92</v>
       </c>
-      <c r="E7" s="71">
+      <c r="E7" s="70">
         <v>4836737</v>
       </c>
     </row>
